--- a/Dados Baixados/Dados Por Região /Dados Por Região Geral/dadosporregiaogeral.xlsx
+++ b/Dados Baixados/Dados Por Região /Dados Por Região Geral/dadosporregiaogeral.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB8DEFA-0FCF-40E2-9882-60B438B2FD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D7BB69-B26D-4E77-AB45-1E7A388A475B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0D68B2A2-E984-4789-85D7-04010DFA51AF}"/>
   </bookViews>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B82028-8D82-4C41-A787-FFBF406F0DDD}">
   <dimension ref="A3:AF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,7 +744,8 @@
         <v>1514</v>
       </c>
       <c r="AF4" s="2">
-        <v>141350</v>
+        <f>141350/2</f>
+        <v>70675</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
@@ -842,7 +843,8 @@
         <v>1547</v>
       </c>
       <c r="AF5" s="1">
-        <v>143315</v>
+        <f>143315/2</f>
+        <v>71657.5</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
@@ -940,7 +942,8 @@
         <v>1651</v>
       </c>
       <c r="AF6" s="1">
-        <v>148359</v>
+        <f>148359/2</f>
+        <v>74179.5</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
@@ -1038,7 +1041,8 @@
         <v>1491</v>
       </c>
       <c r="AF7" s="1">
-        <v>141411</v>
+        <f>141411/2</f>
+        <v>70705.5</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
@@ -1136,7 +1140,8 @@
         <v>1483</v>
       </c>
       <c r="AF8" s="1">
-        <v>141568</v>
+        <f>141568/2</f>
+        <v>70784</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
@@ -1234,7 +1239,8 @@
         <v>1563</v>
       </c>
       <c r="AF9" s="1">
-        <v>140047</v>
+        <f>140047/2</f>
+        <v>70023.5</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
@@ -1332,7 +1338,8 @@
         <v>1451</v>
       </c>
       <c r="AF10" s="1">
-        <v>134596</v>
+        <f>134596/2</f>
+        <v>67298</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
@@ -1430,7 +1437,8 @@
         <v>1508</v>
       </c>
       <c r="AF11" s="1">
-        <v>130742</v>
+        <f>130742/2</f>
+        <v>65371</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
@@ -1528,7 +1536,8 @@
         <v>1455</v>
       </c>
       <c r="AF12" s="1">
-        <v>124446</v>
+        <f>124446/2</f>
+        <v>62223</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
@@ -1626,7 +1635,8 @@
         <v>1445</v>
       </c>
       <c r="AF13" s="2">
-        <v>120942</v>
+        <f>120942/2</f>
+        <v>60471</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
@@ -1724,7 +1734,8 @@
         <v>1446</v>
       </c>
       <c r="AF14" s="2">
-        <v>120974</v>
+        <f>120974/2</f>
+        <v>60487</v>
       </c>
     </row>
   </sheetData>
